--- a/クリックポスト発送情報/20200912102300/英子日本发货表格9.10.xlsx
+++ b/クリックポスト発送情報/20200912102300/英子日本发货表格9.10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628601453196</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -103,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -253,13 +257,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1085,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
